--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_439__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_439__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5423,7 +5423,7 @@
                   <c:v>94.76388549804688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.06024169921875</c:v>
+                  <c:v>97.06025695800781</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55.77460861206055</c:v>
@@ -5432,7 +5432,7 @@
                   <c:v>38.84022521972656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.34933090209961</c:v>
+                  <c:v>53.34932708740234</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.75177001953125</c:v>
@@ -5444,7 +5444,7 @@
                   <c:v>87.27288818359375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.14920043945312</c:v>
+                  <c:v>97.149169921875</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>49.80934524536133</c:v>
@@ -5462,13 +5462,13 @@
                   <c:v>40.19988250732422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.76727294921875</c:v>
+                  <c:v>70.76728057861328</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>72.76187896728516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.83436870574951</c:v>
+                  <c:v>13.83436965942383</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.70170593261719</c:v>
@@ -5477,13 +5477,13 @@
                   <c:v>80.21823120117188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.30207443237305</c:v>
+                  <c:v>55.30207824707031</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.05215454101562</c:v>
+                  <c:v>61.05215072631836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.23723983764648</c:v>
+                  <c:v>59.23725128173828</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>90.08955383300781</c:v>
@@ -5507,7 +5507,7 @@
                   <c:v>97.64485168457031</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.40891265869141</c:v>
+                  <c:v>53.40891647338867</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>79.37078857421875</c:v>
@@ -5528,10 +5528,10 @@
                   <c:v>88.92227172851562</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.18960571289062</c:v>
+                  <c:v>96.18959045410156</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.76301574707031</c:v>
+                  <c:v>59.76300811767578</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>92.96836853027344</c:v>
@@ -5540,13 +5540,13 @@
                   <c:v>38.70562744140625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.71658325195312</c:v>
+                  <c:v>87.71659851074219</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>85.93154907226562</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>80.734130859375</c:v>
+                  <c:v>80.73411560058594</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>91.46658325195312</c:v>
@@ -5558,7 +5558,7 @@
                   <c:v>82.98057556152344</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>97.00296020507812</c:v>
+                  <c:v>97.00294494628906</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>97.22065734863281</c:v>
@@ -5573,7 +5573,7 @@
                   <c:v>97.82977294921875</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74.67259216308594</c:v>
+                  <c:v>74.67259979248047</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>89.92027282714844</c:v>
@@ -5582,10 +5582,10 @@
                   <c:v>57.50873947143555</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>95.66749572753906</c:v>
+                  <c:v>95.66751098632812</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>76.47262573242188</c:v>
+                  <c:v>76.47261047363281</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>54.31740188598633</c:v>
@@ -5594,22 +5594,22 @@
                   <c:v>96.8265380859375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49.14432525634766</c:v>
+                  <c:v>49.14431762695312</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>86.91500854492188</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>98.15058898925781</c:v>
+                  <c:v>98.15057373046875</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.69558715820312</c:v>
+                  <c:v>96.69560241699219</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>97.21304321289062</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>85.58184814453125</c:v>
+                  <c:v>85.58183288574219</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>94.94766235351562</c:v>
@@ -5621,7 +5621,7 @@
                   <c:v>97.25047302246094</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.61546325683594</c:v>
+                  <c:v>62.6154670715332</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>82.85842895507812</c:v>
@@ -5630,13 +5630,13 @@
                   <c:v>67.58601379394531</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>83.76350402832031</c:v>
+                  <c:v>83.76348876953125</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>97.29560852050781</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.61726379394531</c:v>
+                  <c:v>97.61724853515625</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>28.12421035766602</c:v>
@@ -5657,13 +5657,13 @@
                   <c:v>64.76872253417969</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>52.22215270996094</c:v>
+                  <c:v>52.2221565246582</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.41937255859375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.45320129394531</c:v>
+                  <c:v>97.45321655273438</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>84.94966125488281</c:v>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>97.06024169921875</v>
+        <v>97.06025695800781</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>53.34933090209961</v>
+        <v>53.34932708740234</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>97.14920043945312</v>
+        <v>97.149169921875</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>70.76727294921875</v>
+        <v>70.76728057861328</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>13.83436870574951</v>
+        <v>13.83436965942383</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>55.30207443237305</v>
+        <v>55.30207824707031</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>61.05215454101562</v>
+        <v>61.05215072631836</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>59.23723983764648</v>
+        <v>59.23725128173828</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.40891265869141</v>
+        <v>53.40891647338867</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.18960571289062</v>
+        <v>96.18959045410156</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>59.76301574707031</v>
+        <v>59.76300811767578</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>87.71658325195312</v>
+        <v>87.71659851074219</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>80.734130859375</v>
+        <v>80.73411560058594</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>97.00296020507812</v>
+        <v>97.00294494628906</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>75.0586</v>
       </c>
       <c r="F54">
-        <v>74.67259216308594</v>
+        <v>74.67259979248047</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>95.66749572753906</v>
+        <v>95.66751098632812</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>79.8115</v>
       </c>
       <c r="F58">
-        <v>76.47262573242188</v>
+        <v>76.47261047363281</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>49.14432525634766</v>
+        <v>49.14431762695312</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>98.0121</v>
       </c>
       <c r="F63">
-        <v>98.15058898925781</v>
+        <v>98.15057373046875</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.69558715820312</v>
+        <v>96.69560241699219</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>89.3086</v>
       </c>
       <c r="F66">
-        <v>85.58184814453125</v>
+        <v>85.58183288574219</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>62.61546325683594</v>
+        <v>62.6154670715332</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>82.6225</v>
       </c>
       <c r="F73">
-        <v>83.76350402832031</v>
+        <v>83.76348876953125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.61726379394531</v>
+        <v>97.61724853515625</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>52.22215270996094</v>
+        <v>52.2221565246582</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.5826</v>
       </c>
       <c r="F84">
-        <v>97.45320129394531</v>
+        <v>97.45321655273438</v>
       </c>
     </row>
     <row r="85" spans="1:6">
